--- a/tablitsa.xlsx
+++ b/tablitsa.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20370" windowHeight="9525"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9630"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -2681,8 +2681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="A126" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q136" sqref="Q136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2940,7 +2940,7 @@
         <v>38</v>
       </c>
       <c r="B6" s="37">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6" s="37">
         <v>1</v>
@@ -2953,44 +2953,44 @@
       </c>
       <c r="F6" s="33">
         <f>(2*B6+C6+D6)/(E6*2)</f>
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="G6" s="37">
         <v>350</v>
       </c>
       <c r="H6" s="37">
         <f t="shared" si="3"/>
-        <v>29.4495099158381</v>
+        <v>21.417825393336798</v>
       </c>
       <c r="I6" s="35">
         <f t="shared" ref="I6" si="5">(500/F6)/((500/F6)-(G6/300))</f>
-        <v>1.0130001688333616</v>
+        <v>1.009421265141319</v>
       </c>
       <c r="J6" s="50"/>
       <c r="K6" s="39">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="L6" s="37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" s="37">
         <v>0.06</v>
       </c>
       <c r="N6" s="37">
         <f t="shared" si="0"/>
-        <v>79.5</v>
+        <v>70</v>
       </c>
       <c r="O6" s="38">
         <f t="shared" si="1"/>
-        <v>14.43670320585786</v>
+        <v>12.7115625711956</v>
       </c>
       <c r="P6" s="33"/>
       <c r="Q6" s="39">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="R6" s="81">
         <f t="shared" si="4"/>
-        <v>45.290194662188192</v>
+        <v>45.326558248612976</v>
       </c>
       <c r="T6" s="81">
         <v>2</v>
@@ -3077,22 +3077,22 @@
         <v>1</v>
       </c>
       <c r="E8" s="33">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="F8" s="33">
         <f>(2*B8+C8+D8)/(E8*2)</f>
-        <v>14.285714285714286</v>
+        <v>14.705882352941178</v>
       </c>
       <c r="G8" s="33">
         <v>600</v>
       </c>
       <c r="H8" s="33">
         <f>F8*5.3544563483342</f>
-        <v>76.492233547631429</v>
+        <v>78.742005122561764</v>
       </c>
       <c r="I8" s="35">
         <f t="shared" ref="I8" si="6">(500/F8)/((500/F8)-(G8/300))</f>
-        <v>1.0606060606060606</v>
+        <v>1.0625</v>
       </c>
       <c r="J8" s="50"/>
       <c r="K8" s="36">
@@ -3114,11 +3114,11 @@
       </c>
       <c r="P8" s="33"/>
       <c r="Q8" s="36">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="R8" s="80">
         <f t="shared" si="4"/>
-        <v>90.034224741501461</v>
+        <v>80.207305981516356</v>
       </c>
       <c r="T8" s="80">
         <v>4</v>
@@ -3822,7 +3822,7 @@
         <v>45</v>
       </c>
       <c r="B20" s="36">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C20" s="33">
         <v>1</v>
@@ -3831,16 +3831,16 @@
         <v>11</v>
       </c>
       <c r="E20" s="33">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="F20" s="33">
         <f t="shared" ref="F20:F21" si="22">(2*B20+C20+D20)/(E20*2)</f>
-        <v>37.931034482758619</v>
+        <v>32.258064516129032</v>
       </c>
       <c r="G20" s="33"/>
       <c r="H20" s="33">
         <f t="shared" ref="H20:H21" si="23">F20*5.3544563483342</f>
-        <v>203.10006838509031</v>
+        <v>172.72439833336128</v>
       </c>
       <c r="I20" s="35">
         <v>1</v>
@@ -3865,11 +3865,11 @@
       </c>
       <c r="P20" s="33"/>
       <c r="Q20" s="36">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="R20" s="80">
         <f t="shared" si="15"/>
-        <v>399.73390048577232</v>
+        <v>400.23336444438911</v>
       </c>
       <c r="T20" s="80">
         <v>7</v>
@@ -3908,7 +3908,7 @@
       </c>
       <c r="J21" s="50"/>
       <c r="K21" s="39">
-        <v>1250</v>
+        <v>910</v>
       </c>
       <c r="L21" s="37">
         <v>3</v>
@@ -3918,19 +3918,19 @@
       </c>
       <c r="N21" s="37">
         <f t="shared" si="0"/>
-        <v>1475</v>
+        <v>1073.8</v>
       </c>
       <c r="O21" s="38">
         <f t="shared" si="1"/>
-        <v>267.85078275019299</v>
+        <v>194.99536984214049</v>
       </c>
       <c r="P21" s="33"/>
       <c r="Q21" s="39">
-        <v>237</v>
+        <v>310</v>
       </c>
       <c r="R21" s="81">
         <f t="shared" si="15"/>
-        <v>499.63090442918951</v>
+        <v>499.7465741027475</v>
       </c>
       <c r="T21" s="81">
         <v>8</v>
@@ -4273,22 +4273,22 @@
         <v>2</v>
       </c>
       <c r="E31" s="31">
-        <v>2.15</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="F31" s="31">
         <f t="shared" si="27"/>
-        <v>5.8139534883720936</v>
+        <v>6.0975609756097562</v>
       </c>
       <c r="G31" s="31">
         <v>500</v>
       </c>
       <c r="H31" s="31">
         <f>F31*5.3544563483342</f>
-        <v>31.130560164733723</v>
+        <v>32.649124075208533</v>
       </c>
       <c r="I31" s="32">
         <f t="shared" si="28"/>
-        <v>1.0197628458498025</v>
+        <v>1.0207468879668051</v>
       </c>
       <c r="J31" s="50"/>
       <c r="K31" s="34">
@@ -4310,11 +4310,11 @@
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" s="34">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="R31" s="80">
         <f t="shared" si="29"/>
-        <v>45.481497564211224</v>
+        <v>45.132246402544155</v>
       </c>
       <c r="T31" s="80">
         <v>3</v>
@@ -4394,7 +4394,7 @@
         <v>52</v>
       </c>
       <c r="B33" s="39">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C33" s="37">
         <v>1</v>
@@ -4403,22 +4403,22 @@
         <v>2</v>
       </c>
       <c r="E33" s="37">
-        <v>2.15</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="F33" s="37">
         <f t="shared" ref="F33" si="31">(2*B33+C33+D33)/(E33*2)</f>
-        <v>5.3488372093023262</v>
+        <v>5.1219512195121952</v>
       </c>
       <c r="G33" s="37">
         <v>500</v>
       </c>
       <c r="H33" s="37">
         <f t="shared" ref="H33:H36" si="32">F33*5.3544563483342</f>
-        <v>28.640115351555025</v>
+        <v>27.425264223175169</v>
       </c>
       <c r="I33" s="38">
         <f t="shared" si="28"/>
-        <v>1.0181531176006315</v>
+        <v>1.0173697270471465</v>
       </c>
       <c r="J33" s="50"/>
       <c r="K33" s="39">
@@ -4440,11 +4440,11 @@
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" s="39">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="R33" s="81">
         <f t="shared" si="29"/>
-        <v>79.809807922076715</v>
+        <v>72.248471948450771</v>
       </c>
       <c r="T33" s="81">
         <v>4</v>
@@ -7942,7 +7942,7 @@
         <v>115</v>
       </c>
       <c r="B102" s="36">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C102" s="33">
         <v>1</v>
@@ -7951,16 +7951,16 @@
         <v>4</v>
       </c>
       <c r="E102" s="33">
-        <v>1.73</v>
+        <v>1.77</v>
       </c>
       <c r="F102" s="33">
         <f t="shared" si="89"/>
-        <v>12.427745664739884</v>
+        <v>11.016949152542372</v>
       </c>
       <c r="G102" s="33"/>
       <c r="H102" s="33">
         <f t="shared" si="85"/>
-        <v>66.543821670049297</v>
+        <v>58.989773329105581</v>
       </c>
       <c r="I102" s="35">
         <f t="shared" si="86"/>
@@ -7986,11 +7986,11 @@
       </c>
       <c r="P102" s="33"/>
       <c r="Q102" s="39">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="R102" s="81">
         <f t="shared" si="90"/>
-        <v>100.23081753652626</v>
+        <v>99.787578863771273</v>
       </c>
       <c r="T102" s="81">
         <v>3</v>
@@ -9788,22 +9788,22 @@
         <v>2</v>
       </c>
       <c r="E135" s="37">
-        <v>1.57</v>
+        <v>1.45</v>
       </c>
       <c r="F135" s="37">
         <f>(2*B135+C135+D135)/(E135*2)</f>
-        <v>5.4140127388535033</v>
+        <v>5.862068965517242</v>
       </c>
       <c r="G135" s="37">
         <v>625</v>
       </c>
       <c r="H135" s="37">
         <f t="shared" si="108"/>
-        <v>28.989094879516369</v>
+        <v>31.388192386786692</v>
       </c>
       <c r="I135" s="38">
         <f t="shared" si="112"/>
-        <v>1.0230790116752646</v>
+        <v>1.0250368188512518</v>
       </c>
       <c r="K135" s="39">
         <v>110</v>
@@ -9823,11 +9823,11 @@
         <v>19.975312611878799</v>
       </c>
       <c r="Q135" s="39">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="R135" s="81">
         <f t="shared" si="111"/>
-        <v>94.912601124643373</v>
+        <v>89.681295409804036</v>
       </c>
       <c r="T135" s="81">
         <v>2</v>
@@ -23121,7 +23121,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T150 T148 T152 T154 T157:T167">
+  <conditionalFormatting sqref="T148 T150 T152 T154 T157:T167">
     <cfRule type="dataBar" priority="3143">
       <dataBar>
         <cfvo type="min"/>
@@ -23158,7 +23158,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U150 U148 U152 U154 U157:U167">
+  <conditionalFormatting sqref="U148 U150 U152 U154 U157:U167">
     <cfRule type="dataBar" priority="3158">
       <dataBar>
         <cfvo type="min"/>
@@ -23297,7 +23297,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U154 U152 U157:U167">
+  <conditionalFormatting sqref="U152 U154 U157:U167">
     <cfRule type="dataBar" priority="3202">
       <dataBar>
         <cfvo type="min"/>
